--- a/data/trans_orig/P6707-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82526F03-13AD-4FB3-8B9E-D49A753651E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B2863D-BB32-4DDC-9DD7-98AC37DF96F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1352A6D-6363-4729-B1A2-166BFEBDFE49}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E546848-323D-4CC8-8947-A752C3D98373}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="519">
   <si>
     <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2012 (Tasa respuesta: 33,64%)</t>
   </si>
@@ -76,1447 +76,1468 @@
     <t>10,72%</t>
   </si>
   <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
     <t>6,94%</t>
   </si>
   <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
   </si>
   <si>
     <t>31,54%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>24,43%</t>
   </si>
   <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>27,0%</t>
   </si>
   <si>
     <t>23,63%</t>
@@ -1525,28 +1546,28 @@
     <t>19,28%</t>
   </si>
   <si>
-    <t>27,01%</t>
+    <t>27,06%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>14,92%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>18,07%</t>
@@ -1555,25 +1576,25 @@
     <t>18,23%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +2006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2CE01-4A6E-41A9-9226-CD8C8714B61E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487DD324-4DE0-445E-A0BF-A70AEC8580A1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2277,13 +2298,13 @@
         <v>21602</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -2292,19 +2313,19 @@
         <v>50677</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>69</v>
@@ -2313,13 +2334,13 @@
         <v>71375</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -2328,13 +2349,13 @@
         <v>53303</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>119</v>
@@ -2343,13 +2364,13 @@
         <v>124678</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2385,13 @@
         <v>182757</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>126</v>
@@ -2379,13 +2400,13 @@
         <v>135876</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>301</v>
@@ -2394,18 +2415,18 @@
         <v>318634</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2417,13 +2438,13 @@
         <v>163602</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -2432,13 +2453,13 @@
         <v>109024</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>251</v>
@@ -2447,13 +2468,13 @@
         <v>272626</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2489,13 @@
         <v>79919</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -2483,13 +2504,13 @@
         <v>64847</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>136</v>
@@ -2498,13 +2519,13 @@
         <v>144767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2540,13 @@
         <v>212519</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>110</v>
@@ -2534,13 +2555,13 @@
         <v>119250</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>317</v>
@@ -2549,13 +2570,13 @@
         <v>331770</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2591,13 @@
         <v>181074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>108</v>
@@ -2585,13 +2606,13 @@
         <v>113882</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>283</v>
@@ -2600,19 +2621,19 @@
         <v>294956</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>260</v>
@@ -2621,13 +2642,13 @@
         <v>273599</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -2636,13 +2657,13 @@
         <v>157926</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>403</v>
@@ -2651,13 +2672,13 @@
         <v>431525</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2693,13 @@
         <v>910713</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>528</v>
@@ -2687,13 +2708,13 @@
         <v>564930</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>1390</v>
@@ -2702,18 +2723,18 @@
         <v>1475644</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2725,13 +2746,13 @@
         <v>32545</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2740,13 +2761,13 @@
         <v>41108</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -2755,13 +2776,13 @@
         <v>73653</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2797,13 @@
         <v>23985</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -2791,13 +2812,13 @@
         <v>13571</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -2806,13 +2827,13 @@
         <v>37556</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2848,13 @@
         <v>55504</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -2842,13 +2863,13 @@
         <v>57843</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -2857,13 +2878,13 @@
         <v>113347</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2899,13 @@
         <v>87819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -2893,13 +2914,13 @@
         <v>48075</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -2908,19 +2929,19 @@
         <v>135894</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>102</v>
@@ -2929,13 +2950,13 @@
         <v>115394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -2944,13 +2965,13 @@
         <v>73345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>167</v>
@@ -2959,13 +2980,13 @@
         <v>188739</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +3001,13 @@
         <v>315246</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>209</v>
@@ -2995,13 +3016,13 @@
         <v>233942</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>494</v>
@@ -3010,13 +3031,13 @@
         <v>549188</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3054,13 @@
         <v>215746</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>168</v>
@@ -3048,13 +3069,13 @@
         <v>180848</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>362</v>
@@ -3063,13 +3084,13 @@
         <v>396593</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3105,13 @@
         <v>118763</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>84</v>
@@ -3099,13 +3120,13 @@
         <v>86978</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
         <v>194</v>
@@ -3114,13 +3135,13 @@
         <v>205741</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3156,13 @@
         <v>315873</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>183</v>
@@ -3150,13 +3171,13 @@
         <v>198789</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>486</v>
@@ -3165,13 +3186,13 @@
         <v>514662</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3207,13 @@
         <v>297967</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>170</v>
@@ -3201,13 +3222,13 @@
         <v>183559</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>454</v>
@@ -3216,19 +3237,19 @@
         <v>481526</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>431</v>
@@ -3237,13 +3258,13 @@
         <v>460367</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>258</v>
@@ -3252,13 +3273,13 @@
         <v>284575</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>689</v>
@@ -3267,13 +3288,13 @@
         <v>744942</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3309,13 @@
         <v>1408716</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>863</v>
@@ -3303,13 +3324,13 @@
         <v>934749</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>2185</v>
@@ -3318,18 +3339,18 @@
         <v>2343465</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +3369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F1A6D9-46FB-4CF3-8994-3D524EE7A4A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B844DB8B-12CD-41F0-A4FD-9EA9A4ECF1A0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3365,7 +3386,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3472,13 +3493,13 @@
         <v>30332</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -3487,13 +3508,13 @@
         <v>16592</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -3502,13 +3523,13 @@
         <v>46924</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3544,13 @@
         <v>29166</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3538,13 +3559,13 @@
         <v>13540</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -3553,13 +3574,13 @@
         <v>42706</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3595,13 @@
         <v>31651</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -3589,13 +3610,13 @@
         <v>21034</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -3604,13 +3625,13 @@
         <v>52685</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3646,13 @@
         <v>22207</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3640,13 +3661,13 @@
         <v>10588</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -3655,19 +3676,19 @@
         <v>32796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>27</v>
@@ -3676,13 +3697,13 @@
         <v>29761</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -3691,13 +3712,13 @@
         <v>10333</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>37</v>
@@ -3706,13 +3727,13 @@
         <v>40094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3748,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3742,13 +3763,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3757,18 +3778,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3780,13 +3801,13 @@
         <v>184202</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -3795,13 +3816,13 @@
         <v>128196</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>292</v>
@@ -3810,13 +3831,13 @@
         <v>312398</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3852,13 @@
         <v>139612</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
         <v>87</v>
@@ -3846,13 +3867,13 @@
         <v>89923</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="M11" s="7">
         <v>222</v>
@@ -3861,13 +3882,13 @@
         <v>229536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3903,13 @@
         <v>246818</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H12" s="7">
         <v>184</v>
@@ -3897,13 +3918,13 @@
         <v>183222</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M12" s="7">
         <v>412</v>
@@ -3912,13 +3933,13 @@
         <v>430040</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3954,13 @@
         <v>187245</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -3948,13 +3969,13 @@
         <v>144347</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>318</v>
@@ -3963,19 +3984,19 @@
         <v>331593</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>155</v>
@@ -3984,13 +4005,13 @@
         <v>167320</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -3999,13 +4020,13 @@
         <v>107086</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>259</v>
@@ -4014,13 +4035,13 @@
         <v>274406</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4056,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -4050,13 +4071,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -4065,18 +4086,18 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4088,13 +4109,13 @@
         <v>47167</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -4103,13 +4124,13 @@
         <v>68161</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -4118,13 +4139,13 @@
         <v>115329</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4160,13 @@
         <v>51571</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4154,13 +4175,13 @@
         <v>41278</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -4169,13 +4190,13 @@
         <v>92849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4211,13 @@
         <v>103405</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -4205,13 +4226,13 @@
         <v>67423</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M18" s="7">
         <v>159</v>
@@ -4220,13 +4241,13 @@
         <v>170828</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4262,13 @@
         <v>73771</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -4256,13 +4277,13 @@
         <v>63895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -4271,19 +4292,19 @@
         <v>137666</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>69</v>
@@ -4292,13 +4313,13 @@
         <v>74694</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -4307,13 +4328,13 @@
         <v>67696</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M20" s="7">
         <v>132</v>
@@ -4322,13 +4343,13 @@
         <v>142390</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4364,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -4358,13 +4379,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -4373,13 +4394,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4417,13 @@
         <v>261702</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -4426,13 +4447,13 @@
         <v>474651</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4468,13 @@
         <v>220350</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>141</v>
@@ -4462,13 +4483,13 @@
         <v>144741</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>348</v>
@@ -4477,13 +4498,13 @@
         <v>365091</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4519,13 @@
         <v>381873</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H24" s="7">
         <v>272</v>
@@ -4513,13 +4534,13 @@
         <v>271679</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>331</v>
+        <v>256</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>623</v>
@@ -4528,13 +4549,13 @@
         <v>653552</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4570,13 @@
         <v>283224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
@@ -4564,13 +4585,13 @@
         <v>218831</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M25" s="7">
         <v>484</v>
@@ -4579,19 +4600,19 @@
         <v>502054</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>69</v>
+        <v>344</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>342</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>251</v>
@@ -4600,13 +4621,13 @@
         <v>271775</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>345</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H26" s="7">
         <v>177</v>
@@ -4615,13 +4636,13 @@
         <v>185115</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>218</v>
+        <v>349</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M26" s="7">
         <v>428</v>
@@ -4630,13 +4651,13 @@
         <v>456890</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4672,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4666,13 +4687,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4681,18 +4702,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4711,7 +4732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC7C92F-FFCD-49BF-83FA-D2983E346E37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726833BE-0E02-48F5-AEB1-8BF190042F96}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4728,7 +4749,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4835,13 +4856,13 @@
         <v>6090</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4850,13 +4871,13 @@
         <v>6192</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4865,13 +4886,13 @@
         <v>12281</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>358</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4907,13 @@
         <v>7786</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4901,13 +4922,13 @@
         <v>2601</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4916,13 +4937,13 @@
         <v>10387</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>198</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4958,13 @@
         <v>6767</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>53</v>
+        <v>372</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4952,13 +4973,13 @@
         <v>7367</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -4967,13 +4988,13 @@
         <v>14134</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +5009,13 @@
         <v>5561</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5003,13 +5024,13 @@
         <v>1968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5018,19 +5039,19 @@
         <v>7528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>383</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -5039,13 +5060,13 @@
         <v>7183</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5054,13 +5075,13 @@
         <v>2184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5069,13 +5090,13 @@
         <v>9367</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>390</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5111,13 @@
         <v>33387</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -5105,13 +5126,13 @@
         <v>20311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>66</v>
@@ -5120,18 +5141,18 @@
         <v>53698</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5143,13 +5164,13 @@
         <v>122287</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -5158,13 +5179,13 @@
         <v>92836</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -5173,13 +5194,13 @@
         <v>215124</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5215,13 @@
         <v>32014</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
@@ -5209,13 +5230,13 @@
         <v>38567</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M11" s="7">
         <v>74</v>
@@ -5224,13 +5245,13 @@
         <v>70580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5266,13 @@
         <v>81753</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>110</v>
+        <v>413</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H12" s="7">
         <v>77</v>
@@ -5260,13 +5281,13 @@
         <v>53918</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>200</v>
+        <v>417</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M12" s="7">
         <v>151</v>
@@ -5275,13 +5296,13 @@
         <v>135670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>318</v>
+        <v>419</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5317,13 @@
         <v>48248</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>422</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>424</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5311,13 +5332,13 @@
         <v>32602</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>426</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>427</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -5326,19 +5347,19 @@
         <v>80850</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>43</v>
@@ -5347,13 +5368,13 @@
         <v>46646</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -5362,13 +5383,13 @@
         <v>33490</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>426</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -5377,13 +5398,13 @@
         <v>80137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5419,13 @@
         <v>330948</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>330</v>
@@ -5413,13 +5434,13 @@
         <v>251413</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>576</v>
@@ -5428,18 +5449,18 @@
         <v>582361</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5451,13 +5472,13 @@
         <v>30594</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>430</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -5466,13 +5487,13 @@
         <v>26525</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -5481,13 +5502,13 @@
         <v>57119</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>438</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5523,13 @@
         <v>9152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5517,13 +5538,13 @@
         <v>11525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -5532,13 +5553,13 @@
         <v>20676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5574,13 @@
         <v>32826</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>446</v>
+        <v>141</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -5568,13 +5589,13 @@
         <v>25983</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>65</v>
+        <v>455</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -5583,13 +5604,13 @@
         <v>58809</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>451</v>
+        <v>36</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>67</v>
+        <v>457</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5625,13 @@
         <v>23117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -5619,13 +5640,13 @@
         <v>23021</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -5634,19 +5655,19 @@
         <v>46139</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>460</v>
+        <v>284</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>28</v>
@@ -5655,13 +5676,13 @@
         <v>36730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -5670,13 +5691,13 @@
         <v>27309</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -5685,13 +5706,13 @@
         <v>64039</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5727,13 @@
         <v>132419</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>146</v>
@@ -5721,13 +5742,13 @@
         <v>114363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>262</v>
@@ -5736,13 +5757,13 @@
         <v>246782</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5780,13 @@
         <v>158971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -5774,13 +5795,13 @@
         <v>125553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="M22" s="7">
         <v>249</v>
@@ -5789,13 +5810,13 @@
         <v>284524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5831,13 @@
         <v>48952</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H23" s="7">
         <v>67</v>
@@ -5825,13 +5846,13 @@
         <v>52692</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>112</v>
+        <v>489</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="M23" s="7">
         <v>107</v>
@@ -5840,13 +5861,13 @@
         <v>101644</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5882,13 @@
         <v>121346</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>253</v>
+        <v>494</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="H24" s="7">
         <v>122</v>
@@ -5876,13 +5897,13 @@
         <v>87268</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="M24" s="7">
         <v>233</v>
@@ -5891,13 +5912,13 @@
         <v>208613</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5933,13 @@
         <v>76926</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
@@ -5927,13 +5948,13 @@
         <v>57591</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="M25" s="7">
         <v>157</v>
@@ -5942,19 +5963,19 @@
         <v>134517</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>78</v>
@@ -5963,13 +5984,13 @@
         <v>90559</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="H26" s="7">
         <v>80</v>
@@ -5978,13 +5999,13 @@
         <v>62983</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="M26" s="7">
         <v>158</v>
@@ -5993,13 +6014,13 @@
         <v>153542</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6035,13 @@
         <v>496754</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -6029,13 +6050,13 @@
         <v>386087</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>904</v>
@@ -6044,18 +6065,18 @@
         <v>882841</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6707-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B2863D-BB32-4DDC-9DD7-98AC37DF96F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D697E4-CDDD-49E3-A7DE-E95FC5C12E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E546848-323D-4CC8-8947-A752C3D98373}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A8D95E7-3A62-4F7E-8B51-F776936904DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="509">
   <si>
     <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2012 (Tasa respuesta: 33,64%)</t>
   </si>
@@ -76,1341 +76,1338 @@
     <t>10,72%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>22,61%</t>
   </si>
   <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
     <t>18,98%</t>
   </si>
   <si>
@@ -1426,9 +1423,6 @@
     <t>26,12%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
     <t>13,7%</t>
   </si>
   <si>
@@ -1453,12 +1447,6 @@
     <t>23,88%</t>
   </si>
   <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
     <t>25,95%</t>
   </si>
   <si>
@@ -1519,27 +1507,15 @@
     <t>9,1%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
     <t>24,43%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
     <t>22,6%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
     <t>23,63%</t>
   </si>
   <si>
@@ -1582,13 +1558,7 @@
     <t>23,2%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
     <t>13,01%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
   </si>
   <si>
     <t>14,04%</t>
@@ -2006,7 +1976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487DD324-4DE0-445E-A0BF-A70AEC8580A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A2456C-0DED-4790-939C-7B25C13B90DF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2298,13 +2268,13 @@
         <v>21602</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -2313,19 +2283,19 @@
         <v>50677</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>69</v>
@@ -2334,13 +2304,13 @@
         <v>71375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -2349,13 +2319,13 @@
         <v>53303</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>119</v>
@@ -2364,13 +2334,13 @@
         <v>124678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2355,13 @@
         <v>182757</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>126</v>
@@ -2400,13 +2370,13 @@
         <v>135876</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>301</v>
@@ -2415,18 +2385,18 @@
         <v>318634</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2438,13 +2408,13 @@
         <v>163602</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -2453,13 +2423,13 @@
         <v>109024</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>251</v>
@@ -2468,13 +2438,13 @@
         <v>272626</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2459,13 @@
         <v>79919</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -2504,13 +2474,13 @@
         <v>64847</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>136</v>
@@ -2519,13 +2489,13 @@
         <v>144767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2510,13 @@
         <v>212519</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>110</v>
@@ -2555,13 +2525,13 @@
         <v>119250</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>317</v>
@@ -2570,13 +2540,13 @@
         <v>331770</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2561,13 @@
         <v>181074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>108</v>
@@ -2606,13 +2576,13 @@
         <v>113882</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>283</v>
@@ -2621,19 +2591,19 @@
         <v>294956</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>260</v>
@@ -2642,13 +2612,13 @@
         <v>273599</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -2657,13 +2627,13 @@
         <v>157926</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>403</v>
@@ -2672,13 +2642,13 @@
         <v>431525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2663,13 @@
         <v>910713</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>528</v>
@@ -2708,13 +2678,13 @@
         <v>564930</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1390</v>
@@ -2723,18 +2693,18 @@
         <v>1475644</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2746,13 +2716,13 @@
         <v>32545</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2761,13 +2731,13 @@
         <v>41108</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -2776,13 +2746,13 @@
         <v>73653</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2767,13 @@
         <v>23985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -2812,13 +2782,13 @@
         <v>13571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -2827,13 +2797,13 @@
         <v>37556</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,13 +2818,13 @@
         <v>55504</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -2863,13 +2833,13 @@
         <v>57843</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -2878,13 +2848,13 @@
         <v>113347</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2869,13 @@
         <v>87819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -2914,13 +2884,13 @@
         <v>48075</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -2929,19 +2899,19 @@
         <v>135894</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>102</v>
@@ -2950,13 +2920,13 @@
         <v>115394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -2965,13 +2935,13 @@
         <v>73345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>167</v>
@@ -2980,13 +2950,13 @@
         <v>188739</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +2971,13 @@
         <v>315246</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>209</v>
@@ -3016,13 +2986,13 @@
         <v>233942</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>494</v>
@@ -3031,13 +3001,13 @@
         <v>549188</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3024,13 @@
         <v>215746</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>168</v>
@@ -3069,13 +3039,13 @@
         <v>180848</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>362</v>
@@ -3084,13 +3054,13 @@
         <v>396593</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3075,13 @@
         <v>118763</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>84</v>
@@ -3120,13 +3090,13 @@
         <v>86978</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>194</v>
@@ -3135,13 +3105,13 @@
         <v>205741</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3126,13 @@
         <v>315873</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>183</v>
@@ -3171,13 +3141,13 @@
         <v>198789</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>486</v>
@@ -3186,13 +3156,13 @@
         <v>514662</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3177,13 @@
         <v>297967</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>170</v>
@@ -3222,13 +3192,13 @@
         <v>183559</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>454</v>
@@ -3237,19 +3207,19 @@
         <v>481526</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>431</v>
@@ -3258,13 +3228,13 @@
         <v>460367</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>258</v>
@@ -3273,13 +3243,13 @@
         <v>284575</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>689</v>
@@ -3288,13 +3258,13 @@
         <v>744942</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3279,13 @@
         <v>1408716</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>863</v>
@@ -3324,13 +3294,13 @@
         <v>934749</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2185</v>
@@ -3339,18 +3309,18 @@
         <v>2343465</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3369,7 +3339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B844DB8B-12CD-41F0-A4FD-9EA9A4ECF1A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40AD1DC-5471-4205-A06C-B65057BA575C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3386,7 +3356,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3493,13 +3463,13 @@
         <v>30332</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -3508,13 +3478,13 @@
         <v>16592</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -3523,13 +3493,13 @@
         <v>46924</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3514,13 @@
         <v>29166</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3559,13 +3529,13 @@
         <v>13540</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -3574,13 +3544,13 @@
         <v>42706</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3565,13 @@
         <v>31651</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -3610,13 +3580,13 @@
         <v>21034</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -3625,13 +3595,13 @@
         <v>52685</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3616,13 @@
         <v>22207</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3661,13 +3631,13 @@
         <v>10588</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -3676,19 +3646,19 @@
         <v>32796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>27</v>
@@ -3697,13 +3667,13 @@
         <v>29761</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -3712,13 +3682,13 @@
         <v>10333</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>37</v>
@@ -3727,13 +3697,13 @@
         <v>40094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3718,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3763,13 +3733,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3778,18 +3748,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3801,13 +3771,13 @@
         <v>184202</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -3816,13 +3786,13 @@
         <v>128196</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>292</v>
@@ -3831,13 +3801,13 @@
         <v>312398</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3822,13 @@
         <v>139612</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>87</v>
@@ -3867,13 +3837,13 @@
         <v>89923</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>222</v>
@@ -3882,13 +3852,13 @@
         <v>229536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3873,13 @@
         <v>246818</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>184</v>
@@ -3918,13 +3888,13 @@
         <v>183222</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>412</v>
@@ -3933,13 +3903,13 @@
         <v>430040</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3924,13 @@
         <v>187245</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -3969,13 +3939,13 @@
         <v>144347</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>318</v>
@@ -3984,19 +3954,19 @@
         <v>331593</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>155</v>
@@ -4005,13 +3975,13 @@
         <v>167320</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -4020,13 +3990,13 @@
         <v>107086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>259</v>
@@ -4035,13 +4005,13 @@
         <v>274406</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4026,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -4071,13 +4041,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -4086,18 +4056,18 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4109,13 +4079,13 @@
         <v>47167</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -4124,13 +4094,13 @@
         <v>68161</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -4139,13 +4109,13 @@
         <v>115329</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4130,13 @@
         <v>51571</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4175,13 +4145,13 @@
         <v>41278</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -4190,13 +4160,13 @@
         <v>92849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4181,13 @@
         <v>103405</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -4226,13 +4196,13 @@
         <v>67423</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>159</v>
@@ -4241,13 +4211,13 @@
         <v>170828</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4232,13 @@
         <v>73771</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -4277,13 +4247,13 @@
         <v>63895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -4292,19 +4262,19 @@
         <v>137666</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>69</v>
@@ -4313,13 +4283,13 @@
         <v>74694</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>153</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -4328,13 +4298,13 @@
         <v>67696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>132</v>
@@ -4343,13 +4313,13 @@
         <v>142390</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4334,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -4379,13 +4349,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -4394,13 +4364,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4387,13 @@
         <v>261702</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -4432,13 +4402,13 @@
         <v>212949</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="M22" s="7">
         <v>446</v>
@@ -4447,13 +4417,13 @@
         <v>474651</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4438,13 @@
         <v>220350</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H23" s="7">
         <v>141</v>
@@ -4483,13 +4453,13 @@
         <v>144741</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>199</v>
       </c>
       <c r="M23" s="7">
         <v>348</v>
@@ -4498,13 +4468,13 @@
         <v>365091</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4489,13 @@
         <v>381873</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>272</v>
@@ -4534,13 +4504,13 @@
         <v>271679</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>623</v>
@@ -4549,13 +4519,13 @@
         <v>653552</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,13 +4540,13 @@
         <v>283224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
@@ -4585,13 +4555,13 @@
         <v>218831</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M25" s="7">
         <v>484</v>
@@ -4600,19 +4570,19 @@
         <v>502054</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>251</v>
@@ -4621,13 +4591,13 @@
         <v>271775</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
         <v>177</v>
@@ -4636,13 +4606,13 @@
         <v>185115</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
         <v>428</v>
@@ -4651,13 +4621,13 @@
         <v>456890</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4642,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4687,13 +4657,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4702,18 +4672,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4732,7 +4702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726833BE-0E02-48F5-AEB1-8BF190042F96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53103CC0-C49C-4C81-AB77-9F77221C12A9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4749,7 +4719,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4856,13 +4826,13 @@
         <v>6090</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4871,13 +4841,13 @@
         <v>6192</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4886,13 +4856,13 @@
         <v>12281</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4877,13 @@
         <v>7786</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4922,13 +4892,13 @@
         <v>2601</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>365</v>
+        <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4937,13 +4907,13 @@
         <v>10387</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4928,13 @@
         <v>6767</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4973,13 +4943,13 @@
         <v>7367</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -4988,13 +4958,13 @@
         <v>14134</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>377</v>
+        <v>156</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +4979,13 @@
         <v>5561</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5024,13 +4994,13 @@
         <v>1968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5039,19 +5009,19 @@
         <v>7528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -5060,13 +5030,13 @@
         <v>7183</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5075,13 +5045,13 @@
         <v>2184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>392</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5090,13 +5060,13 @@
         <v>9367</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>394</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5081,13 @@
         <v>33387</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -5126,13 +5096,13 @@
         <v>20311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>66</v>
@@ -5141,18 +5111,18 @@
         <v>53698</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5164,13 +5134,13 @@
         <v>122287</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -5179,13 +5149,13 @@
         <v>92836</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -5194,13 +5164,13 @@
         <v>215124</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5185,13 @@
         <v>32014</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
@@ -5230,13 +5200,13 @@
         <v>38567</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M11" s="7">
         <v>74</v>
@@ -5245,13 +5215,13 @@
         <v>70580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5236,13 @@
         <v>81753</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H12" s="7">
         <v>77</v>
@@ -5281,13 +5251,13 @@
         <v>53918</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M12" s="7">
         <v>151</v>
@@ -5296,13 +5266,13 @@
         <v>135670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5287,13 @@
         <v>48248</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>423</v>
+        <v>223</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5332,10 +5302,10 @@
         <v>32602</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>426</v>
+        <v>123</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>427</v>
@@ -5359,7 +5329,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>43</v>
@@ -5368,7 +5338,7 @@
         <v>46646</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>431</v>
@@ -5386,10 +5356,10 @@
         <v>433</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>434</v>
+        <v>120</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -5398,13 +5368,13 @@
         <v>80137</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>436</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>437</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5389,13 @@
         <v>330948</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>330</v>
@@ -5434,13 +5404,13 @@
         <v>251413</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>576</v>
@@ -5449,18 +5419,18 @@
         <v>582361</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5472,13 +5442,13 @@
         <v>30594</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>436</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -5487,13 +5457,13 @@
         <v>26525</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -5502,13 +5472,13 @@
         <v>57119</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5493,13 @@
         <v>9152</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5538,7 +5508,7 @@
         <v>11525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>447</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>448</v>
@@ -5559,7 +5529,7 @@
         <v>451</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5544,13 @@
         <v>32826</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>141</v>
+        <v>452</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>452</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>453</v>
+        <v>33</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -5589,13 +5559,13 @@
         <v>25983</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -5604,13 +5574,13 @@
         <v>58809</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>36</v>
+        <v>455</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5595,13 @@
         <v>23117</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -5640,13 +5610,13 @@
         <v>23021</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -5655,19 +5625,19 @@
         <v>46139</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>28</v>
@@ -5676,13 +5646,13 @@
         <v>36730</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -5691,13 +5661,13 @@
         <v>27309</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>471</v>
+        <v>293</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>472</v>
+        <v>258</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -5706,13 +5676,13 @@
         <v>64039</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5697,13 @@
         <v>132419</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>146</v>
@@ -5742,13 +5712,13 @@
         <v>114363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>262</v>
@@ -5757,13 +5727,13 @@
         <v>246782</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5750,13 @@
         <v>158971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -5795,13 +5765,13 @@
         <v>125553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M22" s="7">
         <v>249</v>
@@ -5810,13 +5780,13 @@
         <v>284524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5801,13 @@
         <v>48952</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H23" s="7">
         <v>67</v>
@@ -5846,13 +5816,13 @@
         <v>52692</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
         <v>107</v>
@@ -5861,13 +5831,13 @@
         <v>101644</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>493</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5852,13 @@
         <v>121346</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>496</v>
+        <v>188</v>
       </c>
       <c r="H24" s="7">
         <v>122</v>
@@ -5897,13 +5867,13 @@
         <v>87268</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>498</v>
+        <v>317</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>499</v>
+        <v>98</v>
       </c>
       <c r="M24" s="7">
         <v>233</v>
@@ -5912,13 +5882,13 @@
         <v>208613</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5903,13 @@
         <v>76926</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
@@ -5948,13 +5918,13 @@
         <v>57591</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="M25" s="7">
         <v>157</v>
@@ -5963,19 +5933,19 @@
         <v>134517</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>78</v>
@@ -5984,13 +5954,13 @@
         <v>90559</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="H26" s="7">
         <v>80</v>
@@ -5999,13 +5969,13 @@
         <v>62983</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>514</v>
+        <v>13</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>516</v>
+        <v>86</v>
       </c>
       <c r="M26" s="7">
         <v>158</v>
@@ -6014,13 +5984,13 @@
         <v>153542</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6005,13 @@
         <v>496754</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -6050,13 +6020,13 @@
         <v>386087</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>904</v>
@@ -6065,18 +6035,18 @@
         <v>882841</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6707-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D697E4-CDDD-49E3-A7DE-E95FC5C12E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E05FDED-6D33-49E9-941B-5CDC4B31B023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A8D95E7-3A62-4F7E-8B51-F776936904DE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{574906E0-4755-4E08-8263-3B318D52AEB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="512">
   <si>
     <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2012 (Tasa respuesta: 33,64%)</t>
   </si>
@@ -76,1495 +76,1504 @@
     <t>10,72%</t>
   </si>
   <si>
-    <t>6,99%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A2456C-0DED-4790-939C-7B25C13B90DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341DF230-A722-4F4B-826F-E8DEB6B7B306}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2564,10 +2573,10 @@
         <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>108</v>
@@ -2576,13 +2585,13 @@
         <v>113882</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>283</v>
@@ -2591,13 +2600,13 @@
         <v>294956</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2621,13 @@
         <v>273599</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -2627,13 +2636,13 @@
         <v>157926</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>403</v>
@@ -2642,13 +2651,13 @@
         <v>431525</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,7 +2713,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2716,13 +2725,13 @@
         <v>32545</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2731,13 +2740,13 @@
         <v>41108</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -2746,13 +2755,13 @@
         <v>73653</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2776,13 @@
         <v>23985</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -2782,13 +2791,13 @@
         <v>13571</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -2797,13 +2806,13 @@
         <v>37556</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2827,13 @@
         <v>55504</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -3024,13 +3033,13 @@
         <v>215746</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>168</v>
@@ -3039,13 +3048,13 @@
         <v>180848</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>362</v>
@@ -3054,13 +3063,13 @@
         <v>396593</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3084,13 @@
         <v>118763</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="H23" s="7">
         <v>84</v>
@@ -3108,10 +3117,10 @@
         <v>70</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3135,13 @@
         <v>315873</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>183</v>
@@ -3141,13 +3150,13 @@
         <v>198789</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>486</v>
@@ -3156,13 +3165,13 @@
         <v>514662</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3186,13 @@
         <v>297967</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>170</v>
@@ -3192,13 +3201,13 @@
         <v>183559</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>454</v>
@@ -3210,10 +3219,10 @@
         <v>135</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3237,13 @@
         <v>460367</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>258</v>
@@ -3243,13 +3252,13 @@
         <v>284575</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>689</v>
@@ -3258,13 +3267,13 @@
         <v>744942</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,7 +3329,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +3348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40AD1DC-5471-4205-A06C-B65057BA575C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4032DA49-D459-4DE6-B979-215488FB77BB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3356,7 +3365,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3463,13 +3472,13 @@
         <v>30332</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -3478,13 +3487,13 @@
         <v>16592</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -3493,13 +3502,13 @@
         <v>46924</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3523,13 @@
         <v>29166</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3529,13 +3538,13 @@
         <v>13540</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -3544,13 +3553,13 @@
         <v>42706</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,7 +3574,7 @@
         <v>31651</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>211</v>
@@ -3586,7 +3595,7 @@
         <v>214</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -3595,13 +3604,13 @@
         <v>52685</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3625,13 @@
         <v>22207</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3631,13 +3640,13 @@
         <v>10588</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -3646,13 +3655,13 @@
         <v>32796</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3676,13 @@
         <v>29761</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -3682,13 +3691,13 @@
         <v>10333</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>37</v>
@@ -3697,13 +3706,13 @@
         <v>40094</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3780,13 @@
         <v>184202</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -3786,13 +3795,13 @@
         <v>128196</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>292</v>
@@ -3801,13 +3810,13 @@
         <v>312398</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3831,13 @@
         <v>139612</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>87</v>
@@ -3837,13 +3846,13 @@
         <v>89923</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>222</v>
@@ -3852,13 +3861,13 @@
         <v>229536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3882,13 @@
         <v>246818</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>184</v>
@@ -3888,13 +3897,13 @@
         <v>183222</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>412</v>
@@ -3903,13 +3912,13 @@
         <v>430040</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3933,13 @@
         <v>187245</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -3939,13 +3948,13 @@
         <v>144347</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>318</v>
@@ -3954,13 +3963,13 @@
         <v>331593</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3984,13 @@
         <v>167320</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -3990,13 +3999,13 @@
         <v>107086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>259</v>
@@ -4005,13 +4014,13 @@
         <v>274406</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,7 +4076,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4079,13 +4088,13 @@
         <v>47167</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -4094,13 +4103,13 @@
         <v>68161</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -4109,13 +4118,13 @@
         <v>115329</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4139,13 @@
         <v>51571</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4145,13 +4154,13 @@
         <v>41278</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -4160,13 +4169,13 @@
         <v>92849</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4190,13 @@
         <v>103405</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -4196,13 +4205,13 @@
         <v>67423</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>159</v>
@@ -4211,13 +4220,13 @@
         <v>170828</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4241,13 @@
         <v>73771</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -4247,13 +4256,13 @@
         <v>63895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -4262,13 +4271,13 @@
         <v>137666</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4292,13 @@
         <v>74694</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -4298,13 +4307,13 @@
         <v>67696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M20" s="7">
         <v>132</v>
@@ -4313,13 +4322,13 @@
         <v>142390</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4396,13 @@
         <v>261702</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>211</v>
+        <v>315</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -4402,13 +4411,13 @@
         <v>212949</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="M22" s="7">
         <v>446</v>
@@ -4417,13 +4426,13 @@
         <v>474651</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4447,13 @@
         <v>220350</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>326</v>
+        <v>123</v>
       </c>
       <c r="H23" s="7">
         <v>141</v>
@@ -4453,13 +4462,13 @@
         <v>144741</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>199</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>348</v>
@@ -4468,13 +4477,13 @@
         <v>365091</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4498,13 @@
         <v>381873</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H24" s="7">
         <v>272</v>
@@ -4504,13 +4513,13 @@
         <v>271679</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M24" s="7">
         <v>623</v>
@@ -4519,13 +4528,13 @@
         <v>653552</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4549,13 @@
         <v>283224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
@@ -4555,13 +4564,13 @@
         <v>218831</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
         <v>484</v>
@@ -4570,13 +4579,13 @@
         <v>502054</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>346</v>
+        <v>69</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4600,13 @@
         <v>271775</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>177</v>
@@ -4606,13 +4615,13 @@
         <v>185115</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>218</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>428</v>
@@ -4621,13 +4630,13 @@
         <v>456890</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>262</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,7 +4692,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4702,7 +4711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53103CC0-C49C-4C81-AB77-9F77221C12A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A9A07B-B5D4-4633-99D2-7253D5C183E6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4719,7 +4728,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4826,13 +4835,13 @@
         <v>6090</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4841,13 +4850,13 @@
         <v>6192</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>361</v>
+        <v>211</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4856,13 +4865,13 @@
         <v>12281</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4886,13 @@
         <v>7786</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4892,13 +4901,13 @@
         <v>2601</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>251</v>
+        <v>363</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4907,13 +4916,13 @@
         <v>10387</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>372</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4937,13 @@
         <v>6767</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>284</v>
+        <v>86</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>374</v>
+        <v>53</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4943,13 +4952,13 @@
         <v>7367</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -4958,13 +4967,13 @@
         <v>14134</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>156</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4988,13 @@
         <v>5561</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4994,13 +5003,13 @@
         <v>1968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5009,13 +5018,13 @@
         <v>7528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5039,13 @@
         <v>7183</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5045,13 +5054,13 @@
         <v>2184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>389</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5060,13 +5069,13 @@
         <v>9367</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5143,13 @@
         <v>122287</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -5149,13 +5158,13 @@
         <v>92836</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -5164,13 +5173,13 @@
         <v>215124</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5194,13 @@
         <v>32014</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
@@ -5200,13 +5209,13 @@
         <v>38567</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M11" s="7">
         <v>74</v>
@@ -5215,13 +5224,13 @@
         <v>70580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5245,13 @@
         <v>81753</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>415</v>
+        <v>110</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H12" s="7">
         <v>77</v>
@@ -5251,13 +5260,13 @@
         <v>53918</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>419</v>
+        <v>200</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M12" s="7">
         <v>151</v>
@@ -5266,13 +5275,13 @@
         <v>135670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>421</v>
+        <v>318</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5296,13 @@
         <v>48248</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>424</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>417</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>425</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5302,13 +5311,13 @@
         <v>32602</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>427</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -5317,13 +5326,13 @@
         <v>80850</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5347,13 @@
         <v>46646</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -5353,13 +5362,13 @@
         <v>33490</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>425</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>426</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -5368,13 +5377,13 @@
         <v>80137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,7 +5439,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5442,13 +5451,13 @@
         <v>30594</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -5457,13 +5466,13 @@
         <v>26525</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -5472,13 +5481,13 @@
         <v>57119</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>437</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5502,13 @@
         <v>9152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5508,13 +5517,13 @@
         <v>11525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>447</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -5523,13 +5532,13 @@
         <v>20676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5553,13 @@
         <v>32826</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>303</v>
+        <v>447</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>33</v>
+        <v>448</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -5559,13 +5568,13 @@
         <v>25983</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>449</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>453</v>
+        <v>65</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -5574,13 +5583,13 @@
         <v>58809</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>456</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5604,13 @@
         <v>23117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -5610,13 +5619,13 @@
         <v>23021</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>456</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -5625,13 +5634,13 @@
         <v>46139</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>291</v>
+        <v>460</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5655,13 @@
         <v>36730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -5661,13 +5670,13 @@
         <v>27309</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>293</v>
+        <v>466</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>258</v>
+        <v>467</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -5676,13 +5685,13 @@
         <v>64039</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5759,13 @@
         <v>158971</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -5765,13 +5774,13 @@
         <v>125553</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M22" s="7">
         <v>249</v>
@@ -5780,13 +5789,13 @@
         <v>284524</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5810,13 @@
         <v>48952</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H23" s="7">
         <v>67</v>
@@ -5816,13 +5825,13 @@
         <v>52692</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M23" s="7">
         <v>107</v>
@@ -5831,13 +5840,13 @@
         <v>101644</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5861,13 @@
         <v>121346</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H24" s="7">
         <v>122</v>
@@ -5867,13 +5876,13 @@
         <v>87268</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>98</v>
+        <v>492</v>
       </c>
       <c r="M24" s="7">
         <v>233</v>
@@ -5882,13 +5891,13 @@
         <v>208613</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5912,13 @@
         <v>76926</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
@@ -5918,13 +5927,13 @@
         <v>57591</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M25" s="7">
         <v>157</v>
@@ -5933,13 +5942,13 @@
         <v>134517</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +5963,13 @@
         <v>90559</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H26" s="7">
         <v>80</v>
@@ -5969,13 +5978,13 @@
         <v>62983</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>13</v>
+        <v>507</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>86</v>
+        <v>509</v>
       </c>
       <c r="M26" s="7">
         <v>158</v>
@@ -5984,13 +5993,13 @@
         <v>153542</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,7 +6055,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6707-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E05FDED-6D33-49E9-941B-5CDC4B31B023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9A993A6-507A-4EAB-9ED3-69F895067146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{574906E0-4755-4E08-8263-3B318D52AEB5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DEF804D4-FFFF-4088-B1B2-D96774ED0086}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="515">
   <si>
     <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2012 (Tasa respuesta: 33,64%)</t>
   </si>
@@ -1096,484 +1096,493 @@
     <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>31,28%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +1994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341DF230-A722-4F4B-826F-E8DEB6B7B306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169650A6-8490-4A2C-A5E9-D1C17E832283}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2824,7 +2833,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="7">
-        <v>55504</v>
+        <v>55503</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>123</v>
@@ -2926,7 +2935,7 @@
         <v>102</v>
       </c>
       <c r="D20" s="7">
-        <v>115394</v>
+        <v>115393</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>141</v>
@@ -2977,7 +2986,7 @@
         <v>285</v>
       </c>
       <c r="D21" s="7">
-        <v>315246</v>
+        <v>315245</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -3348,7 +3357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4032DA49-D459-4DE6-B979-215488FB77BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6351A2F-4CDB-4428-BFDB-2BCAFB1A0269}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4525,7 +4534,7 @@
         <v>623</v>
       </c>
       <c r="N24" s="7">
-        <v>653552</v>
+        <v>653553</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>333</v>
@@ -4576,7 +4585,7 @@
         <v>484</v>
       </c>
       <c r="N25" s="7">
-        <v>502054</v>
+        <v>502055</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>69</v>
@@ -4678,7 +4687,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -4711,7 +4720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A9A07B-B5D4-4633-99D2-7253D5C183E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B249EB1-FA02-42E3-A7B0-266B7677B438}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4832,46 +4841,46 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>6090</v>
+        <v>6302</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>352</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>6192</v>
+        <v>5491</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>12281</v>
+        <v>11793</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,46 +4892,46 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>7786</v>
+        <v>6820</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>2601</v>
+        <v>2387</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>10387</v>
+        <v>9207</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,46 +4943,46 @@
         <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>6767</v>
+        <v>7271</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>86</v>
+        <v>368</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>53</v>
+        <v>370</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>7367</v>
+        <v>6486</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>370</v>
+        <v>153</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>14134</v>
+        <v>13757</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,46 +4994,46 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>5561</v>
+        <v>5626</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1968</v>
+        <v>1775</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>7528</v>
+        <v>7401</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,40 +5045,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>7183</v>
+        <v>6923</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>2184</v>
+        <v>2064</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>9367</v>
+        <v>8987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>390</v>
+        <v>108</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>391</v>
@@ -5087,7 +5096,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>33387</v>
+        <v>32942</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>59</v>
@@ -5102,7 +5111,7 @@
         <v>33</v>
       </c>
       <c r="I9" s="7">
-        <v>20311</v>
+        <v>18203</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -5117,7 +5126,7 @@
         <v>66</v>
       </c>
       <c r="N9" s="7">
-        <v>53698</v>
+        <v>51145</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -5140,7 +5149,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>122287</v>
+        <v>313310</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>393</v>
@@ -5155,7 +5164,7 @@
         <v>115</v>
       </c>
       <c r="I10" s="7">
-        <v>92836</v>
+        <v>84122</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>396</v>
@@ -5170,7 +5179,7 @@
         <v>173</v>
       </c>
       <c r="N10" s="7">
-        <v>215124</v>
+        <v>397432</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>399</v>
@@ -5191,7 +5200,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>32014</v>
+        <v>28977</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>402</v>
@@ -5206,7 +5215,7 @@
         <v>48</v>
       </c>
       <c r="I11" s="7">
-        <v>38567</v>
+        <v>34839</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>405</v>
@@ -5221,7 +5230,7 @@
         <v>74</v>
       </c>
       <c r="N11" s="7">
-        <v>70580</v>
+        <v>63816</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>408</v>
@@ -5242,40 +5251,40 @@
         <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>81753</v>
+        <v>78517</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>110</v>
+        <v>411</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H12" s="7">
         <v>77</v>
       </c>
       <c r="I12" s="7">
-        <v>53918</v>
+        <v>49181</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>413</v>
+        <v>346</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>200</v>
+        <v>414</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>414</v>
+        <v>31</v>
       </c>
       <c r="M12" s="7">
         <v>151</v>
       </c>
       <c r="N12" s="7">
-        <v>135670</v>
+        <v>127698</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>415</v>
@@ -5293,46 +5302,46 @@
         <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>48248</v>
+        <v>46440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>417</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>32602</v>
+        <v>30462</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>418</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>420</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
       </c>
       <c r="N13" s="7">
-        <v>80850</v>
+        <v>76902</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,46 +5353,46 @@
         <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>46646</v>
+        <v>44561</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>424</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
       </c>
       <c r="I14" s="7">
-        <v>33490</v>
+        <v>30845</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
       </c>
       <c r="N14" s="7">
-        <v>80137</v>
+        <v>75406</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,7 +5404,7 @@
         <v>246</v>
       </c>
       <c r="D15" s="7">
-        <v>330948</v>
+        <v>511804</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -5410,7 +5419,7 @@
         <v>330</v>
       </c>
       <c r="I15" s="7">
-        <v>251413</v>
+        <v>229450</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -5425,7 +5434,7 @@
         <v>576</v>
       </c>
       <c r="N15" s="7">
-        <v>582361</v>
+        <v>741254</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -5448,46 +5457,46 @@
         <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>30594</v>
+        <v>28217</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>430</v>
+        <v>125</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>26525</v>
+        <v>23957</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
       </c>
       <c r="N16" s="7">
-        <v>57119</v>
+        <v>52174</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,46 +5508,46 @@
         <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>9152</v>
+        <v>8422</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
       </c>
       <c r="I17" s="7">
-        <v>11525</v>
+        <v>10321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>444</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
       </c>
       <c r="N17" s="7">
-        <v>20676</v>
+        <v>18743</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,46 +5559,46 @@
         <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>32826</v>
+        <v>30936</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>25983</v>
+        <v>24070</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>65</v>
+        <v>454</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
       </c>
       <c r="N18" s="7">
-        <v>58809</v>
+        <v>55006</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>67</v>
+        <v>457</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,46 +5610,46 @@
         <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>23117</v>
+        <v>21989</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>23021</v>
+        <v>22287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
       </c>
       <c r="N19" s="7">
-        <v>46139</v>
+        <v>44275</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,46 +5661,46 @@
         <v>28</v>
       </c>
       <c r="D20" s="7">
-        <v>36730</v>
+        <v>35652</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
       </c>
       <c r="I20" s="7">
-        <v>27309</v>
+        <v>25066</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
       </c>
       <c r="N20" s="7">
-        <v>64039</v>
+        <v>60717</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>468</v>
+        <v>330</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,7 +5712,7 @@
         <v>116</v>
       </c>
       <c r="D21" s="7">
-        <v>132419</v>
+        <v>125215</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -5718,7 +5727,7 @@
         <v>146</v>
       </c>
       <c r="I21" s="7">
-        <v>114363</v>
+        <v>105701</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -5733,7 +5742,7 @@
         <v>262</v>
       </c>
       <c r="N21" s="7">
-        <v>246782</v>
+        <v>230916</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -5756,46 +5765,46 @@
         <v>91</v>
       </c>
       <c r="D22" s="7">
-        <v>158971</v>
+        <v>347828</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>472</v>
+        <v>236</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
       </c>
       <c r="I22" s="7">
-        <v>125553</v>
+        <v>113570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M22" s="7">
         <v>249</v>
       </c>
       <c r="N22" s="7">
-        <v>284524</v>
+        <v>461399</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>478</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,46 +5816,46 @@
         <v>40</v>
       </c>
       <c r="D23" s="7">
-        <v>48952</v>
+        <v>44219</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H23" s="7">
         <v>67</v>
       </c>
       <c r="I23" s="7">
-        <v>52692</v>
+        <v>47548</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>112</v>
+        <v>487</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M23" s="7">
         <v>107</v>
       </c>
       <c r="N23" s="7">
-        <v>101644</v>
+        <v>91767</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,46 +5867,46 @@
         <v>111</v>
       </c>
       <c r="D24" s="7">
-        <v>121346</v>
+        <v>116724</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>253</v>
+        <v>492</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H24" s="7">
         <v>122</v>
       </c>
       <c r="I24" s="7">
-        <v>87268</v>
+        <v>79738</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M24" s="7">
         <v>233</v>
       </c>
       <c r="N24" s="7">
-        <v>208613</v>
+        <v>196462</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,46 +5918,46 @@
         <v>75</v>
       </c>
       <c r="D25" s="7">
-        <v>76926</v>
+        <v>74054</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>498</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
       </c>
       <c r="I25" s="7">
-        <v>57591</v>
+        <v>54524</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M25" s="7">
         <v>157</v>
       </c>
       <c r="N25" s="7">
-        <v>134517</v>
+        <v>128578</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>223</v>
+        <v>506</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>503</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,46 +5969,46 @@
         <v>78</v>
       </c>
       <c r="D26" s="7">
-        <v>90559</v>
+        <v>87135</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>505</v>
+        <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H26" s="7">
         <v>80</v>
       </c>
       <c r="I26" s="7">
-        <v>62983</v>
+        <v>57974</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>507</v>
+        <v>327</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M26" s="7">
         <v>158</v>
       </c>
       <c r="N26" s="7">
-        <v>153542</v>
+        <v>145109</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>271</v>
+        <v>512</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,7 +6020,7 @@
         <v>395</v>
       </c>
       <c r="D27" s="7">
-        <v>496754</v>
+        <v>669961</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -6026,7 +6035,7 @@
         <v>509</v>
       </c>
       <c r="I27" s="7">
-        <v>386087</v>
+        <v>353354</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -6041,7 +6050,7 @@
         <v>904</v>
       </c>
       <c r="N27" s="7">
-        <v>882841</v>
+        <v>1023315</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
